--- a/DMSNewVSale_2025-11-01_21-06.xlsx
+++ b/DMSNewVSale_2025-11-01_21-06.xlsx
@@ -39,6 +39,1041 @@
   </si>
   <si>
     <t>عدد التعااملات</t>
+  </si>
+  <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ALL-VENT SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>13.2600</t>
+  </si>
+  <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>ATENO 50MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>AUGRAM 642.9MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.6900</t>
+  </si>
+  <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>40.8000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>BORGASONE 0.1% OINT. 20 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>CAVENTOL SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>CEFAZONE 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>CEFOTAX 2 GM VIAL</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>CEFOZON 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 457MG/5ML PD. FOR ORAL 75 ML</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
+    <t>CLEAR AIR 4MG 7 SACHETS</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>COBAL F 500/200MG 40 TAB</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>94.0500</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DELAREX 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-SIGMA 8MG/2ML 5 AMP.</t>
+  </si>
+  <si>
+    <t>5:4</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>312.0000</t>
+  </si>
+  <si>
+    <t>DICLAC 75 MG/3ML 6AMPS.</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>9.3500</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>300.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>64.3200</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>4.0800</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>FLUREST N 20 TABS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>GENTAZONE CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>GYNOCONAZOL 80MG 3 VAG. SUPP</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>480.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HYDROQUINE 200MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>JOINTGAURD 30 CAPS</t>
+  </si>
+  <si>
+    <t>199.00</t>
+  </si>
+  <si>
+    <t>65.6700</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>KIDMIN IV SOL. 250 ML</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>LIVABION 6 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
+    <t>LOVITROD DROPS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>178.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>MEGAMOX 457MG/5ML SUSP. 70ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>MUCO 15MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>MUCOSOL ADULT 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>NEOCARBON 30 CAPS</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>82.5000</t>
+  </si>
+  <si>
+    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
+    <t>NEUROTON 30 TAB</t>
+  </si>
+  <si>
+    <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML 50ML SUSP.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>NEXIMASH 40 MG 28 CAPS.</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>NIZODERM 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>NOVACTAM 500/250 MG (750 MG) VIAL I.M/I.V</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 24 F.C. TAB</t>
+  </si>
+  <si>
+    <t>PAROXETINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>62.3100</t>
+  </si>
+  <si>
+    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>41.8200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POTARINO  SYRUP</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
+    <t>PROBRIC 10 MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>16.50</t>
+  </si>
+  <si>
+    <t>16.5000</t>
+  </si>
+  <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:87</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:4</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>7.1400</t>
+  </si>
+  <si>
+    <t>REVI 2 CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>ROWACHOL 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>SANSOVIT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>SHAAN LIP BALM 5 GM</t>
+  </si>
+  <si>
+    <t>STOPADOL NIGHT 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>SUPRAX 100MG/5 ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>131.00</t>
+  </si>
+  <si>
+    <t>131.0000</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>TEXACORT 0.1% TOP. LIPOCREAM 20 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>VERMIZOLE 200MG 6 TAB</t>
+  </si>
+  <si>
+    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
+    <t>VOLTAREN 100MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>50.4900</t>
+  </si>
+  <si>
+    <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>44.2200</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8082:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>32.5000</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>XITHRONE 500MG 3 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>XORIN 1GM VIAL</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>ايزي سويت 3 قطع</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>بامبرز رقم 3</t>
+  </si>
+  <si>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>380.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>31:0</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>حنه فاتيكا اسود 1 كيس</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>زيت جونسون كبير</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>115.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>36:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>سكاته بوب تون</t>
+  </si>
+  <si>
+    <t>صابون مغربي موروكان اويل850ج</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>340.0000</t>
+  </si>
+  <si>
+    <t>فرش اسنان اورل فريش</t>
+  </si>
+  <si>
+    <t>فرشه اسنان الجو</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>كريم فاتيكا الحبه السوداء 210 جم</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
     <t>Saturday, 1 November, 2025 9:06 PM</t>
@@ -263,10 +1298,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -275,7 +1310,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -681,58 +1716,4329 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>10</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>11</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>12</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>13</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>14</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>15</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>12</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>17</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>18</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>11</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>12</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>21</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>22</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>23</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>19</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>12</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>24</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>26</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>27</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>12</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>28</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>27</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>12</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>31</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>33</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>19</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>34</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>28</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>35</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>36</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>12</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>37</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>39</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>15</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>12</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>40</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
         <v>10</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>42</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>43</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>12</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>44</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
         <v>11</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>12</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>46</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>19</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>12</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>47</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>50</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>43</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>12</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>51</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>53</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>54</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>12</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>55</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>57</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>58</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>12</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>59</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>61</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>62</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>12</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>63</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>65</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>36</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>12</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>66</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>68</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>58</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>12</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>69</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>71</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>58</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>12</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>72</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>74</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>75</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>12</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>76</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>77</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>78</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>12</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>79</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>81</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>82</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>12</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>72</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>83</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>15</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>12</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>84</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>86</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>15</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>12</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>87</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>89</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>90</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>34</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>91</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>93</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>15</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>12</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>94</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>96</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>54</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>12</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>97</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>99</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>100</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>12</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>101</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>103</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>104</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>12</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>105</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>107</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>108</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>12</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>13</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>110</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>36</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>34</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>111</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>112</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>90</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>12</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>13</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>114</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>115</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>12</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>91</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>116</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>15</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>12</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>117</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>119</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>27</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>12</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>120</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>122</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>123</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>12</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>72</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>125</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>126</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>12</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>13</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>128</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>15</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>12</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>28</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>130</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>104</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>34</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>131</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>133</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>126</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>12</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>91</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>136</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>15</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>12</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>137</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>139</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>15</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>12</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>140</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>142</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>143</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>12</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>144</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>146</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>135</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>12</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>147</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>149</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>126</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>12</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>150</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>152</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>36</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>12</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>40</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>154</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>155</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>12</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>156</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>158</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>62</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>12</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>159</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>161</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>58</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>12</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>162</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>164</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>15</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>12</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>165</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>167</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>62</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>12</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>168</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>170</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>36</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>12</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>171</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>173</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>58</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>12</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>174</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>176</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>36</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>12</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>177</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>179</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>11</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>12</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>91</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>14</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>180</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>58</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>12</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>181</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>183</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>19</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>12</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>63</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>185</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>186</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>12</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>72</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>188</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>27</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>12</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>140</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>190</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>58</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>34</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>191</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>193</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>11</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>12</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>59</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>194</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>15</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>12</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>195</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>197</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>15</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>12</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>198</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>200</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>58</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>12</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>201</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>203</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>82</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>12</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>204</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>205</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>15</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>12</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>201</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>207</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>15</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>12</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>59</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>208</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>15</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>12</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>147</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>209</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>58</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>12</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>210</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>212</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>15</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>12</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>120</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>214</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>19</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>12</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>215</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>217</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>15</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>12</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>218</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>220</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>36</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>12</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>140</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>221</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>58</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>12</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>222</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>224</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>58</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>12</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>225</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>227</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>58</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>12</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>63</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>228</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>58</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>12</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>229</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>230</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>231</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>12</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>156</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>232</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>19</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>12</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>168</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>234</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>235</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>12</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>236</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>238</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>11</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>12</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>239</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>241</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>11</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>12</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>144</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>243</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>54</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>12</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>244</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>245</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>126</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>12</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>55</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>246</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>58</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>12</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>31</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>248</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>27</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>12</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>249</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>251</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>58</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>34</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>91</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>253</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>15</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>34</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>44</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>254</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>15</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>12</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>255</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>257</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>258</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>12</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>259</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>262</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>263</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>12</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>264</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>266</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>58</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>12</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>267</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>269</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>62</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>12</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>31</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>270</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>15</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>12</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>271</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>273</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>58</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>12</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>222</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>274</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>104</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>12</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>28</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>276</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>15</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>12</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>271</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>278</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>62</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>12</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>279</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>280</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>281</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>11</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>12</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>282</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>283</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>15</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>12</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>284</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>285</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>135</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>12</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>286</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>287</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>288</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>15</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>12</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>289</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>290</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>126</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>12</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>195</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>291</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>15</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>12</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>147</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>292</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>15</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>12</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>150</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>293</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>36</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>12</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>55</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>294</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>295</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>12</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>296</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>298</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>36</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>12</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>299</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>300</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>301</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>302</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>12</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>303</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>304</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>306</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>11</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>12</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>94</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>307</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>308</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>82</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>12</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>72</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>309</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>310</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>126</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>12</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>311</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>312</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>313</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>62</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>34</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>314</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>315</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>316</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>11</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>34</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>317</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>318</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>319</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>78</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>34</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>229</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>320</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>321</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>34</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>314</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>322</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>323</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>324</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>34</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>59</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>325</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>15</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>34</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>326</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>327</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>328</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>58</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>34</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>329</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>315</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>330</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>58</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>34</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>331</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>332</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>334</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>58</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>34</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>335</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>336</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>338</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>78</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>34</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>147</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>339</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>58</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>34</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>340</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>341</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>342</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>62</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>34</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>229</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>343</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>344</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>34</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>229</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>345</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>346</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>34</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>347</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>348</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>349</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>58</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>34</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>229</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>350</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>351</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>82</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>34</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>267</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>352</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>11</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>34</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>144</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>353</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>135</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>34</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>59</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>354</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>82</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>34</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>314</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>315</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" ht="26.25" customHeight="1">
+      <c r="N137" s="13">
+        <v>8460.5900000000001</v>
+      </c>
+      <c r="O137" s="13"/>
+      <c r="P137" s="13"/>
+      <c r="Q137" s="13"/>
+    </row>
+    <row r="138" ht="16.5" customHeight="1">
+      <c t="s" r="A138" s="14">
+        <v>355</v>
+      </c>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c t="s" r="G138" s="15">
+        <v>356</v>
+      </c>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+      <c t="s" r="K138" s="17">
+        <v>357</v>
+      </c>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17"/>
+      <c r="P138" s="17"/>
+      <c r="Q138" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="662">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -746,10 +6052,655 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="N137:Q137"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="K138:Q138"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
